--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga8</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H2">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I2">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J2">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.260116688850236</v>
+        <v>0.3065173333333333</v>
       </c>
       <c r="N2">
-        <v>0.260116688850236</v>
+        <v>0.9195519999999999</v>
       </c>
       <c r="O2">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="P2">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="Q2">
-        <v>0.9614045481847399</v>
+        <v>1.21048905728</v>
       </c>
       <c r="R2">
-        <v>0.9614045481847399</v>
+        <v>10.89440151552</v>
       </c>
       <c r="S2">
-        <v>0.005090066865615252</v>
+        <v>0.004406996739477863</v>
       </c>
       <c r="T2">
-        <v>0.005090066865615252</v>
+        <v>0.004406996739477863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H3">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I3">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J3">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.433702706200771</v>
+        <v>0.4494806666666666</v>
       </c>
       <c r="N3">
-        <v>0.433702706200771</v>
+        <v>1.348442</v>
       </c>
       <c r="O3">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="P3">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="Q3">
-        <v>1.602987321361456</v>
+        <v>1.77507556438</v>
       </c>
       <c r="R3">
-        <v>1.602987321361456</v>
+        <v>15.97568007942</v>
       </c>
       <c r="S3">
-        <v>0.008486867121514216</v>
+        <v>0.00646247248374753</v>
       </c>
       <c r="T3">
-        <v>0.008486867121514216</v>
+        <v>0.00646247248374753</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H4">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I4">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J4">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.370576645700057</v>
+        <v>0.488968</v>
       </c>
       <c r="N4">
-        <v>0.370576645700057</v>
+        <v>1.466904</v>
       </c>
       <c r="O4">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="P4">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="Q4">
-        <v>1.369670182262727</v>
+        <v>1.93101775656</v>
       </c>
       <c r="R4">
-        <v>1.369670182262727</v>
+        <v>17.37915980904</v>
       </c>
       <c r="S4">
-        <v>0.007251591252319571</v>
+        <v>0.00703020725867274</v>
       </c>
       <c r="T4">
-        <v>0.007251591252319571</v>
+        <v>0.00703020725867274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H5">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I5">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J5">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.651538255014581</v>
+        <v>0.9389336666666667</v>
       </c>
       <c r="N5">
-        <v>0.651538255014581</v>
+        <v>2.816801</v>
       </c>
       <c r="O5">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="P5">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="Q5">
-        <v>2.408118619593903</v>
+        <v>3.70800866839</v>
       </c>
       <c r="R5">
-        <v>2.408118619593903</v>
+        <v>33.37207801551</v>
       </c>
       <c r="S5">
-        <v>0.01274955981559462</v>
+        <v>0.0134996528991922</v>
       </c>
       <c r="T5">
-        <v>0.01274955981559462</v>
+        <v>0.0134996528991922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H6">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I6">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J6">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.776236771300439</v>
+        <v>0.8194676666666666</v>
       </c>
       <c r="N6">
-        <v>0.776236771300439</v>
+        <v>2.458403</v>
       </c>
       <c r="O6">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="P6">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="Q6">
-        <v>2.869010695527323</v>
+        <v>3.23621712517</v>
       </c>
       <c r="R6">
-        <v>2.869010695527323</v>
+        <v>29.12595412653</v>
       </c>
       <c r="S6">
-        <v>0.01518970999874368</v>
+        <v>0.01178201342101654</v>
       </c>
       <c r="T6">
-        <v>0.01518970999874368</v>
+        <v>0.01178201342101654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H7">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I7">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J7">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.48740890679793</v>
+        <v>6.544727666666667</v>
       </c>
       <c r="N7">
-        <v>4.48740890679793</v>
+        <v>19.634183</v>
       </c>
       <c r="O7">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="P7">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="Q7">
-        <v>16.58569218157387</v>
+        <v>25.84624215937</v>
       </c>
       <c r="R7">
-        <v>16.58569218157387</v>
+        <v>232.61617943433</v>
       </c>
       <c r="S7">
-        <v>0.08781140298964014</v>
+        <v>0.09409775680256441</v>
       </c>
       <c r="T7">
-        <v>0.08781140298964014</v>
+        <v>0.09409775680256441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H8">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I8">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J8">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.260116688850236</v>
+        <v>0.3065173333333333</v>
       </c>
       <c r="N8">
-        <v>0.260116688850236</v>
+        <v>0.9195519999999999</v>
       </c>
       <c r="O8">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="P8">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="Q8">
-        <v>0.7117768221741974</v>
+        <v>0.9068413392213333</v>
       </c>
       <c r="R8">
-        <v>0.7117768221741974</v>
+        <v>8.161572052992</v>
       </c>
       <c r="S8">
-        <v>0.003768436112667131</v>
+        <v>0.003301514211249686</v>
       </c>
       <c r="T8">
-        <v>0.003768436112667131</v>
+        <v>0.003301514211249686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H9">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I9">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J9">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.433702706200771</v>
+        <v>0.4494806666666666</v>
       </c>
       <c r="N9">
-        <v>0.433702706200771</v>
+        <v>1.348442</v>
       </c>
       <c r="O9">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="P9">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="Q9">
-        <v>1.186773272228105</v>
+        <v>1.329802935714667</v>
       </c>
       <c r="R9">
-        <v>1.186773272228105</v>
+        <v>11.968226421432</v>
       </c>
       <c r="S9">
-        <v>0.006283260591362729</v>
+        <v>0.004841379743664251</v>
       </c>
       <c r="T9">
-        <v>0.006283260591362729</v>
+        <v>0.004841379743664251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H10">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I10">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J10">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.370576645700057</v>
+        <v>0.488968</v>
       </c>
       <c r="N10">
-        <v>0.370576645700057</v>
+        <v>1.466904</v>
       </c>
       <c r="O10">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="P10">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="Q10">
-        <v>1.014036694124713</v>
+        <v>1.446627474976</v>
       </c>
       <c r="R10">
-        <v>1.014036694124713</v>
+        <v>13.019647274784</v>
       </c>
       <c r="S10">
-        <v>0.005368722861804493</v>
+        <v>0.005266699874002786</v>
       </c>
       <c r="T10">
-        <v>0.005368722861804493</v>
+        <v>0.005266699874002786</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H11">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I11">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J11">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.651538255014581</v>
+        <v>0.9389336666666667</v>
       </c>
       <c r="N11">
-        <v>0.651538255014581</v>
+        <v>2.816801</v>
       </c>
       <c r="O11">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="P11">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="Q11">
-        <v>1.782853036954532</v>
+        <v>2.777865298710667</v>
       </c>
       <c r="R11">
-        <v>1.782853036954532</v>
+        <v>25.000787688396</v>
       </c>
       <c r="S11">
-        <v>0.009439149405729668</v>
+        <v>0.01011330357800573</v>
       </c>
       <c r="T11">
-        <v>0.009439149405729668</v>
+        <v>0.01011330357800573</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H12">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I12">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J12">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.776236771300439</v>
+        <v>0.8194676666666666</v>
       </c>
       <c r="N12">
-        <v>0.776236771300439</v>
+        <v>2.458403</v>
       </c>
       <c r="O12">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="P12">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="Q12">
-        <v>2.1240749479519</v>
+        <v>2.424421314798666</v>
       </c>
       <c r="R12">
-        <v>2.1240749479519</v>
+        <v>21.819791833188</v>
       </c>
       <c r="S12">
-        <v>0.01124571704291114</v>
+        <v>0.008826529050536415</v>
       </c>
       <c r="T12">
-        <v>0.01124571704291114</v>
+        <v>0.008826529050536415</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H13">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I13">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J13">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.48740890679793</v>
+        <v>6.544727666666667</v>
       </c>
       <c r="N13">
-        <v>4.48740890679793</v>
+        <v>19.634183</v>
       </c>
       <c r="O13">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="P13">
-        <v>0.6429339478309071</v>
+        <v>0.6854485283888218</v>
       </c>
       <c r="Q13">
-        <v>12.27923385306434</v>
+        <v>19.36278623311867</v>
       </c>
       <c r="R13">
-        <v>12.27923385306434</v>
+        <v>174.265076098068</v>
       </c>
       <c r="S13">
-        <v>0.0650112603363862</v>
+        <v>0.07049360362521859</v>
       </c>
       <c r="T13">
-        <v>0.0650112603363862</v>
+        <v>0.07049360362521859</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H14">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I14">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J14">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.260116688850236</v>
+        <v>0.3065173333333333</v>
       </c>
       <c r="N14">
-        <v>0.260116688850236</v>
+        <v>0.9195519999999999</v>
       </c>
       <c r="O14">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="P14">
-        <v>0.03726824390927223</v>
+        <v>0.03210245953075806</v>
       </c>
       <c r="Q14">
-        <v>5.365991226620628</v>
+        <v>0.01868631836444444</v>
       </c>
       <c r="R14">
-        <v>5.365991226620628</v>
+        <v>0.16817686528</v>
       </c>
       <c r="S14">
-        <v>0.02840974093098984</v>
+        <v>6.803080425195728E-05</v>
       </c>
       <c r="T14">
-        <v>0.02840974093098984</v>
+        <v>6.803080425195728E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H15">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I15">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J15">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.433702706200771</v>
+        <v>0.4494806666666666</v>
       </c>
       <c r="N15">
-        <v>0.433702706200771</v>
+        <v>1.348442</v>
       </c>
       <c r="O15">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="P15">
-        <v>0.06213879743836015</v>
+        <v>0.04707542883336065</v>
       </c>
       <c r="Q15">
-        <v>8.946926576383143</v>
+        <v>0.02740183970888889</v>
       </c>
       <c r="R15">
-        <v>8.946926576383143</v>
+        <v>0.24661655738</v>
       </c>
       <c r="S15">
-        <v>0.0473686697254832</v>
+        <v>9.97611812568705E-05</v>
       </c>
       <c r="T15">
-        <v>0.0473686697254832</v>
+        <v>9.97611812568705E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H16">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I16">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J16">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.370576645700057</v>
+        <v>0.488968</v>
       </c>
       <c r="N16">
-        <v>0.370576645700057</v>
+        <v>1.466904</v>
       </c>
       <c r="O16">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="P16">
-        <v>0.05309440497676531</v>
+        <v>0.05121105309488437</v>
       </c>
       <c r="Q16">
-        <v>7.644688383535076</v>
+        <v>0.02980911917333334</v>
       </c>
       <c r="R16">
-        <v>7.644688383535076</v>
+        <v>0.26828207256</v>
       </c>
       <c r="S16">
-        <v>0.04047409086264124</v>
+        <v>0.0001085253024085785</v>
       </c>
       <c r="T16">
-        <v>0.04047409086264124</v>
+        <v>0.0001085253024085785</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H17">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I17">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J17">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.651538255014581</v>
+        <v>0.9389336666666667</v>
       </c>
       <c r="N17">
-        <v>0.651538255014581</v>
+        <v>2.816801</v>
       </c>
       <c r="O17">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="P17">
-        <v>0.09334920689416189</v>
+        <v>0.09833727740105923</v>
       </c>
       <c r="Q17">
-        <v>13.44069300462643</v>
+        <v>0.05724052609888889</v>
       </c>
       <c r="R17">
-        <v>13.44069300462643</v>
+        <v>0.5151647348899999</v>
       </c>
       <c r="S17">
-        <v>0.07116049767283759</v>
+        <v>0.0002083941282795508</v>
       </c>
       <c r="T17">
-        <v>0.07116049767283759</v>
+        <v>0.0002083941282795508</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H18">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I18">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J18">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.776236771300439</v>
+        <v>0.8194676666666666</v>
       </c>
       <c r="N18">
-        <v>0.776236771300439</v>
+        <v>2.458403</v>
       </c>
       <c r="O18">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="P18">
-        <v>0.1112153989505333</v>
+        <v>0.08582525275111597</v>
       </c>
       <c r="Q18">
-        <v>16.01311981553274</v>
+        <v>0.04995748051888889</v>
       </c>
       <c r="R18">
-        <v>16.01311981553274</v>
+        <v>0.4496173246699999</v>
       </c>
       <c r="S18">
-        <v>0.08477997190887847</v>
+        <v>0.0001818789293758532</v>
       </c>
       <c r="T18">
-        <v>0.08477997190887847</v>
+        <v>0.0001818789293758532</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.18289</v>
+      </c>
+      <c r="I19">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="J19">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.544727666666667</v>
+      </c>
+      <c r="N19">
+        <v>19.634183</v>
+      </c>
+      <c r="O19">
+        <v>0.6854485283888218</v>
+      </c>
+      <c r="P19">
+        <v>0.6854485283888218</v>
+      </c>
+      <c r="Q19">
+        <v>0.3989884143188889</v>
+      </c>
+      <c r="R19">
+        <v>3.59089572887</v>
+      </c>
+      <c r="S19">
+        <v>0.001452586977484805</v>
+      </c>
+      <c r="T19">
+        <v>0.001452586977484805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H20">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I20">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J20">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3065173333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.9195519999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.03210245953075806</v>
+      </c>
+      <c r="P20">
+        <v>0.03210245953075806</v>
+      </c>
+      <c r="Q20">
+        <v>6.681706163313779</v>
+      </c>
+      <c r="R20">
+        <v>60.13535546982401</v>
+      </c>
+      <c r="S20">
+        <v>0.02432591777577855</v>
+      </c>
+      <c r="T20">
+        <v>0.02432591777577855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H21">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I21">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J21">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4494806666666666</v>
+      </c>
+      <c r="N21">
+        <v>1.348442</v>
+      </c>
+      <c r="O21">
+        <v>0.04707542883336065</v>
+      </c>
+      <c r="P21">
+        <v>0.04707542883336065</v>
+      </c>
+      <c r="Q21">
+        <v>9.798133463111556</v>
+      </c>
+      <c r="R21">
+        <v>88.183201168004</v>
+      </c>
+      <c r="S21">
+        <v>0.03567181542469199</v>
+      </c>
+      <c r="T21">
+        <v>0.03567181542469199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>20.6291693560275</v>
-      </c>
-      <c r="H19">
-        <v>20.6291693560275</v>
-      </c>
-      <c r="I19">
-        <v>0.7623042556057111</v>
-      </c>
-      <c r="J19">
-        <v>0.7623042556057111</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.48740890679793</v>
-      </c>
-      <c r="N19">
-        <v>4.48740890679793</v>
-      </c>
-      <c r="O19">
-        <v>0.6429339478309071</v>
-      </c>
-      <c r="P19">
-        <v>0.6429339478309071</v>
-      </c>
-      <c r="Q19">
-        <v>92.57151830808073</v>
-      </c>
-      <c r="R19">
-        <v>92.57151830808073</v>
-      </c>
-      <c r="S19">
-        <v>0.4901112845048807</v>
-      </c>
-      <c r="T19">
-        <v>0.4901112845048807</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H22">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I22">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J22">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.488968</v>
+      </c>
+      <c r="N22">
+        <v>1.466904</v>
+      </c>
+      <c r="O22">
+        <v>0.05121105309488437</v>
+      </c>
+      <c r="P22">
+        <v>0.05121105309488437</v>
+      </c>
+      <c r="Q22">
+        <v>10.65890944480534</v>
+      </c>
+      <c r="R22">
+        <v>95.93018500324801</v>
+      </c>
+      <c r="S22">
+        <v>0.03880562065980026</v>
+      </c>
+      <c r="T22">
+        <v>0.03880562065980026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H23">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I23">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J23">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9389336666666667</v>
+      </c>
+      <c r="N23">
+        <v>2.816801</v>
+      </c>
+      <c r="O23">
+        <v>0.09833727740105923</v>
+      </c>
+      <c r="P23">
+        <v>0.09833727740105923</v>
+      </c>
+      <c r="Q23">
+        <v>20.46761531977356</v>
+      </c>
+      <c r="R23">
+        <v>184.208537877962</v>
+      </c>
+      <c r="S23">
+        <v>0.07451592679558175</v>
+      </c>
+      <c r="T23">
+        <v>0.07451592679558175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H24">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I24">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J24">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8194676666666666</v>
+      </c>
+      <c r="N24">
+        <v>2.458403</v>
+      </c>
+      <c r="O24">
+        <v>0.08582525275111597</v>
+      </c>
+      <c r="P24">
+        <v>0.08582525275111597</v>
+      </c>
+      <c r="Q24">
+        <v>17.86340139220956</v>
+      </c>
+      <c r="R24">
+        <v>160.770612529886</v>
+      </c>
+      <c r="S24">
+        <v>0.06503483135018716</v>
+      </c>
+      <c r="T24">
+        <v>0.06503483135018716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H25">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I25">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J25">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.544727666666667</v>
+      </c>
+      <c r="N25">
+        <v>19.634183</v>
+      </c>
+      <c r="O25">
+        <v>0.6854485283888218</v>
+      </c>
+      <c r="P25">
+        <v>0.6854485283888218</v>
+      </c>
+      <c r="Q25">
+        <v>142.6671265602496</v>
+      </c>
+      <c r="R25">
+        <v>1284.004139042246</v>
+      </c>
+      <c r="S25">
+        <v>0.5194045809835539</v>
+      </c>
+      <c r="T25">
+        <v>0.5194045809835539</v>
       </c>
     </row>
   </sheetData>
